--- a/data/trans_bre/P25_5-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_5-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>4,43</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>8,65</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>33,66%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>41,38%</t>
+          <t>80,51%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>14,17%</t>
+          <t>-9,38%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>51,57%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>237,54%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 7,35</t>
+          <t>-2,09; 11,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 4,1</t>
+          <t>-5,82; 4,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 6,17</t>
+          <t>-1,59; 6,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 5,54</t>
+          <t>2,56; 21,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-38,65; 176,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-45,31; 111,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-24,06; 212,75</t>
+          <t>-34,22; 531,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-42,02; 125,59</t>
+          <t>-56,53; 96,18</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-25,82; 192,76</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1,62; 1269,86</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-25,79%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>20,91%</t>
+          <t>-35,12%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>16,42%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>47,68%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 3,02</t>
+          <t>-3,38; 3,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 1,18</t>
+          <t>-5,77; 0,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 3,72</t>
+          <t>-2,96; 4,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 5,11</t>
+          <t>-1,32; 6,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-41,02; 70,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-55,3; 29,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-43,54; 88,93</t>
+          <t>-42,85; 99,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-24,22; 87,04</t>
+          <t>-63,74; 20,94</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-38,8; 115,49</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-20,4; 193,45</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,45</t>
+          <t>4,13</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,79</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-10,49%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>84,75%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>44,62%</t>
+          <t>-10,5%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>116,42%</t>
+          <t>110,03%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>46,21%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>8,91%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 2,94</t>
+          <t>-6,87; 3,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 6,39</t>
+          <t>1,04; 7,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 5,45</t>
+          <t>-1,03; 5,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 10,11</t>
+          <t>-4,55; 4,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-58,03; 75,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,02; 226,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-15,07; 149,58</t>
+          <t>-66,99; 89,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 484,16</t>
+          <t>16,38; 312,85</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-17,0; 136,08</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-43,61; 95,19</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>4,96</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>26,75%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>29,29%</t>
+          <t>28,84%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>78,61%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 2,68</t>
+          <t>-3,54; 3,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 2,18</t>
+          <t>-1,97; 5,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 3,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 4,48</t>
+          <t>0,03; 9,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,73; 55,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,58; 49,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-13,45; 75,61</t>
+          <t>-40,51; 73,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 81,35</t>
+          <t>-32,31; 175,47</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-0,02; 232,06</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,8</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3,76</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6,55%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10,06%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>32,5%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>61,65%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-1,72; 2,5</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-1,31; 2,47</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-0,47; 3,95</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1,19; 6,11</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-22,51; 47,89</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-20,69; 59,14</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-7,78; 90,18</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>16,72; 122,11</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25_5-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_5-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>4,43</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,71</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,54</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>8,65</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>80,51%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-9,38%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>51,57%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>237,54%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>5.413450167574648</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.6886799251219586</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.372140590659512</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>7.687905714312645</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>1.097013596683976</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.09193713356085084</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.475103985359739</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>1.988011183633296</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-2,09; 11,23</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-5,82; 4,05</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,59; 6,15</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>2,56; 21,09</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-34,22; 531,04</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-56,53; 96,18</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-25,82; 192,76</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>1,62; 1269,86</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.6079211677659172</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-5.627785564687326</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-1.655188050526849</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>1.517986521194499</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.2132902607745036</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.5618235544380612</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.2541457684589915</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.06785030462810136</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>12.17681018375559</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.077991910100678</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>6.026314859857147</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>16.80628555064493</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>6.41664314396006</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.9757834121945275</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.934798634488535</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>10.83164086779948</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,18</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,98</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,67</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>1,22%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-35,12%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>16,42%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>47,68%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-3,38; 3,85</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-5,77; 0,71</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,96; 4,84</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-1,32; 6,7</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-42,85; 99,18</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-63,74; 20,94</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-38,8; 115,49</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-20,4; 193,45</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>0.1096185100068432</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-2.772952179697139</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.5143454177820763</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>2.162087148531448</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>0.01827952271919788</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.4088231500925787</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.08217573246388188</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.3695745969058028</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,71</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,13</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,44</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,7</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-10,5%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>110,03%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>46,21%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>8,91%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-3.533142841303407</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-6.482622932867726</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-3.620999828008513</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-2.07058134249444</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.44553667513444</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.6699196876229996</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.4264326077533914</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.2497442690128358</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-6,87; 3,52</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>1,04; 7,29</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,03; 5,4</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-4,55; 4,9</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-66,99; 89,78</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>16,38; 312,85</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-17,0; 136,08</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-43,61; 95,19</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>3.847883032678397</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.3613975800769169</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>4.242770598829336</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>6.125865833063536</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>0.959621293014608</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.1062150544233736</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.022914931314473</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.710294356966702</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,36</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>4,96</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>2,49%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>28,84%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>78,61%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-0.4645355850984807</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>4.279915637962222</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.351964908182935</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.8685786628936432</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>-0.07213212473241161</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>1.152219370824145</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.4380866107492046</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.1149997089211083</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-3,54; 3,59</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,97; 5,12</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0,03; 9,74</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-40,51; 73,02</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-32,31; 175,47</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-0,02; 232,06</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-6.71064367545654</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>1.124483154021319</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.283395389032648</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-4.192619054040031</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.6565229985168087</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>0.194325152367407</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.1926750137364992</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.4269515568712115</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>3.638840391025437</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>7.379022930085509</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>5.312023284942848</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>5.274097357048184</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.9887528534047733</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>3.245357574119911</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.36840851933891</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>1.034234097591519</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,42</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,55</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,8</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>3,76</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>6,55%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>10,06%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>32,5%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>61,65%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,72; 2,5</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-1,31; 2,47</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,47; 3,95</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>1,19; 6,11</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-22,51; 47,89</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-20,69; 59,14</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-7,78; 90,18</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>16,72; 122,11</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.8764170472718248</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.04139859529076334</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.516802564289409</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.962759844242749</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>0.1464381160792465</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.006980355751991401</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.2655249456812279</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.4880905706065224</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-2.10885565243049</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.321749655026486</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.7619338094286617</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.01113156426753322</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>-0.2718967630290824</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3115035642504939</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.1215356003086658</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.007621362119656122</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3.516389761620106</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.346028786459208</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.634357537144077</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>6.148381494136673</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>0.7927296015728834</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.489146815823422</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.8191347027452272</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.379249742578685</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
